--- a/Research survey for a digital savings app(1-130).xlsx
+++ b/Research survey for a digital savings app(1-130).xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://karisministries-my.sharepoint.com/personal/ayooluwa_pushrelationshipgroup_com/Documents/Desktop/WomenTechsters/Group 39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{81EFBC8D-EBBE-9744-9D76-94AE8A38EA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B7B3E8A-9072-473F-94E8-AAB81EF05CB1}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{81EFBC8D-EBBE-9744-9D76-94AE8A38EA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A180BF5-25F2-4DC5-86CA-C603EF0D5D00}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10" windowWidth="19190" windowHeight="10790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$131</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -823,9 +826,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -855,72 +855,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm:ss"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -931,33 +872,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:R131" totalsRowShown="0">
-  <autoFilter ref="A1:R131" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="What is your gender?" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="How old are you?" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="What is your current employment status?_x000a_" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="What is the highest level of education you've completed?" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="What kind of business do you run? (e.g retail, manufacturing, service provider, technology)" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Have you recieved any formal training in finance management?" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="How would you describe your knowledge about finance management?" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="What methods do you currently use to save your money?_x000a_" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="What are the concerns you face with your current saving method?_x000a_" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Have you ever participated in a group savings (Thrift) (Ajo) (Adashe) (Esusu)?_x000a_" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="What concerns do you have about group savings? (Thrift) (Ajo) (Adashe) (Esusu)?_x000a_" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="What features can influence you to use a thrift/group savings app?" dataDxfId="1"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="What is your motivation for saving?" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1260,17 +1174,15 @@
   <dimension ref="A1:R131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="18" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="18" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1292,7 +1204,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>259</v>
       </c>
       <c r="I1" t="s">
@@ -1307,16 +1219,16 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>260</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
       <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" t="s">
         <v>261</v>
       </c>
       <c r="Q1" t="s">
@@ -1330,10 +1242,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>44966.805</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>44966.806030092601</v>
       </c>
       <c r="D2" t="s">
@@ -1383,10 +1295,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>44966.823217592602</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>44966.824456018498</v>
       </c>
       <c r="D3" t="s">
@@ -1436,10 +1348,10 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>44966.824814814798</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>44966.825543981497</v>
       </c>
       <c r="D4" t="s">
@@ -1489,10 +1401,10 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>44966.825937499998</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>44966.826608796298</v>
       </c>
       <c r="D5" t="s">
@@ -1542,10 +1454,10 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>44966.829351851797</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>44966.832002314797</v>
       </c>
       <c r="D6" t="s">
@@ -1595,10 +1507,10 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>44966.833715277797</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>44966.835358796299</v>
       </c>
       <c r="D7" t="s">
@@ -1648,10 +1560,10 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>44966.8360300926</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
         <v>44966.837326388901</v>
       </c>
       <c r="D8" t="s">
@@ -1701,10 +1613,10 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>44966.837141203701</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>44966.839965277803</v>
       </c>
       <c r="D9" t="s">
@@ -1754,10 +1666,10 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>44966.839039351798</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
         <v>44966.840092592603</v>
       </c>
       <c r="D10" t="s">
@@ -1807,10 +1719,10 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>44966.841620370396</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>44966.843009259297</v>
       </c>
       <c r="D11" t="s">
@@ -1860,10 +1772,10 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>44966.845312500001</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>44966.846724536997</v>
       </c>
       <c r="D12" t="s">
@@ -1913,10 +1825,10 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>44966.8436111111</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>44966.847835648099</v>
       </c>
       <c r="D13" t="s">
@@ -1966,10 +1878,10 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>44966.848541666703</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14">
         <v>44966.850312499999</v>
       </c>
       <c r="D14" t="s">
@@ -2019,10 +1931,10 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>44966.850983796299</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15">
         <v>44966.852083333302</v>
       </c>
       <c r="D15" t="s">
@@ -2072,10 +1984,10 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>44966.848993055602</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16">
         <v>44966.852407407401</v>
       </c>
       <c r="D16" t="s">
@@ -2125,10 +2037,10 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>44966.851770833302</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>44966.8534953704</v>
       </c>
       <c r="D17" t="s">
@@ -2178,10 +2090,10 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>44966.853668981501</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>44966.855162036998</v>
       </c>
       <c r="D18" t="s">
@@ -2231,10 +2143,10 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>44966.853750000002</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>44966.855555555601</v>
       </c>
       <c r="D19" t="s">
@@ -2284,10 +2196,10 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>44966.857094907398</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>44966.858530092599</v>
       </c>
       <c r="D20" t="s">
@@ -2337,10 +2249,10 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>44966.859305555598</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>44966.860717592601</v>
       </c>
       <c r="D21" t="s">
@@ -2390,10 +2302,10 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>44966.860972222203</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>44966.861851851798</v>
       </c>
       <c r="D22" t="s">
@@ -2443,10 +2355,10 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>44966.864999999998</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>44966.8663310185</v>
       </c>
       <c r="D23" t="s">
@@ -2496,10 +2408,10 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>44966.868379629603</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>44966.8691666667</v>
       </c>
       <c r="D24" t="s">
@@ -2549,10 +2461,10 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>44966.868958333303</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25">
         <v>44966.870636574102</v>
       </c>
       <c r="D25" t="s">
@@ -2602,10 +2514,10 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>44966.8761689815</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>44966.878460648099</v>
       </c>
       <c r="D26" t="s">
@@ -2655,10 +2567,10 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>44966.876006944403</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>44966.878553240698</v>
       </c>
       <c r="D27" t="s">
@@ -2708,10 +2620,10 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>44966.878148148098</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>44966.879675925898</v>
       </c>
       <c r="D28" t="s">
@@ -2761,10 +2673,10 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>44966.881157407399</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>44966.884131944404</v>
       </c>
       <c r="D29" t="s">
@@ -2814,10 +2726,10 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>44966.881678240701</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>44966.884166666699</v>
       </c>
       <c r="D30" t="s">
@@ -2867,10 +2779,10 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>44966.886608796303</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31">
         <v>44966.887743055602</v>
       </c>
       <c r="D31" t="s">
@@ -2920,10 +2832,10 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>44966.892175925903</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32">
         <v>44966.894861111097</v>
       </c>
       <c r="D32" t="s">
@@ -2973,10 +2885,10 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>44966.9061111111</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33">
         <v>44966.906724537002</v>
       </c>
       <c r="D33" t="s">
@@ -3026,10 +2938,10 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>44966.910995370403</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34">
         <v>44966.913020833301</v>
       </c>
       <c r="D34" t="s">
@@ -3079,10 +2991,10 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>44966.912650462997</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35">
         <v>44966.914178240702</v>
       </c>
       <c r="D35" t="s">
@@ -3132,10 +3044,10 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>44966.916076388901</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36">
         <v>44966.918206018498</v>
       </c>
       <c r="D36" t="s">
@@ -3185,10 +3097,10 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>44966.935300925899</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37">
         <v>44966.936342592599</v>
       </c>
       <c r="D37" t="s">
@@ -3238,10 +3150,10 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>44966.946226851796</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38">
         <v>44966.951041666704</v>
       </c>
       <c r="D38" t="s">
@@ -3291,10 +3203,10 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>44966.962048611102</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39">
         <v>44966.968692129602</v>
       </c>
       <c r="D39" t="s">
@@ -3344,10 +3256,10 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>44966.975289351903</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40">
         <v>44966.977083333302</v>
       </c>
       <c r="D40" t="s">
@@ -3397,10 +3309,10 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>44967.066226851901</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41">
         <v>44967.069583333301</v>
       </c>
       <c r="D41" t="s">
@@ -3450,10 +3362,10 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42">
         <v>44967.296689814801</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42">
         <v>44967.298194444404</v>
       </c>
       <c r="D42" t="s">
@@ -3503,10 +3415,10 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43">
         <v>44967.305162037002</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43">
         <v>44967.306863425903</v>
       </c>
       <c r="D43" t="s">
@@ -3556,10 +3468,10 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44">
         <v>44967.334583333301</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44">
         <v>44967.3358449074</v>
       </c>
       <c r="D44" t="s">
@@ -3609,10 +3521,10 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
         <v>44967.349456018499</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45">
         <v>44967.359710648103</v>
       </c>
       <c r="D45" t="s">
@@ -3662,10 +3574,10 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>44966.706562500003</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46">
         <v>44967.380636574097</v>
       </c>
       <c r="D46" t="s">
@@ -3709,10 +3621,10 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <v>44967.415289351797</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>44967.417627314797</v>
       </c>
       <c r="D47" t="s">
@@ -3762,10 +3674,10 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48">
         <v>44967.419155092597</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48">
         <v>44967.420937499999</v>
       </c>
       <c r="D48" t="s">
@@ -3815,10 +3727,10 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
         <v>44967.4375925926</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>44967.4385763889</v>
       </c>
       <c r="D49" t="s">
@@ -3868,10 +3780,10 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50">
         <v>44967.619895833297</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>44967.620752314797</v>
       </c>
       <c r="D50" t="s">
@@ -3921,10 +3833,10 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51">
         <v>44967.620879629598</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51">
         <v>44967.621458333299</v>
       </c>
       <c r="D51" t="s">
@@ -3974,10 +3886,10 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52">
         <v>44967.6237384259</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52">
         <v>44967.625347222202</v>
       </c>
       <c r="D52" t="s">
@@ -4027,10 +3939,10 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53">
         <v>44967.6237384259</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53">
         <v>44967.625439814801</v>
       </c>
       <c r="D53" t="s">
@@ -4080,10 +3992,10 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54">
         <v>44967.623715277798</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54">
         <v>44967.627465277801</v>
       </c>
       <c r="D54" t="s">
@@ -4133,10 +4045,10 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55">
         <v>44967.6316435185</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55">
         <v>44967.633321759298</v>
       </c>
       <c r="D55" t="s">
@@ -4186,10 +4098,10 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56">
         <v>44967.631076388898</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56">
         <v>44967.633796296301</v>
       </c>
       <c r="D56" t="s">
@@ -4239,10 +4151,10 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57">
         <v>44967.630856481497</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57">
         <v>44967.633993055599</v>
       </c>
       <c r="D57" t="s">
@@ -4292,10 +4204,10 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58">
         <v>44967.635162036997</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58">
         <v>44967.636655092603</v>
       </c>
       <c r="D58" t="s">
@@ -4345,10 +4257,10 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59">
         <v>44967.637141203697</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59">
         <v>44967.637974537</v>
       </c>
       <c r="D59" t="s">
@@ -4398,10 +4310,10 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60">
         <v>44967.638136574104</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60">
         <v>44967.640405092599</v>
       </c>
       <c r="D60" t="s">
@@ -4451,10 +4363,10 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61">
         <v>44967.640231481499</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61">
         <v>44967.642384259299</v>
       </c>
       <c r="D61" t="s">
@@ -4504,10 +4416,10 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62">
         <v>44967.642037037003</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62">
         <v>44967.644571759301</v>
       </c>
       <c r="D62" t="s">
@@ -4557,10 +4469,10 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63">
         <v>44967.6433680556</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63">
         <v>44967.645925925899</v>
       </c>
       <c r="D63" t="s">
@@ -4610,10 +4522,10 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64">
         <v>44967.644884259302</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64">
         <v>44967.646400463003</v>
       </c>
       <c r="D64" t="s">
@@ -4663,10 +4575,10 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65">
         <v>44967.645289351902</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65">
         <v>44967.646724537</v>
       </c>
       <c r="D65" t="s">
@@ -4716,10 +4628,10 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66">
         <v>44967.646226851903</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66">
         <v>44967.648229166698</v>
       </c>
       <c r="D66" t="s">
@@ -4769,10 +4681,10 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67">
         <v>44967.650648148097</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67">
         <v>44967.652650463002</v>
       </c>
       <c r="D67" t="s">
@@ -4822,10 +4734,10 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68">
         <v>44967.651770833298</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68">
         <v>44967.652916666702</v>
       </c>
       <c r="D68" t="s">
@@ -4875,10 +4787,10 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69">
         <v>44967.653993055603</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69">
         <v>44967.655717592599</v>
       </c>
       <c r="D69" t="s">
@@ -4928,10 +4840,10 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70">
         <v>44967.655104166697</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70">
         <v>44967.657488425903</v>
       </c>
       <c r="D70" t="s">
@@ -4981,10 +4893,10 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71">
         <v>44967.6570138889</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71">
         <v>44967.658275463</v>
       </c>
       <c r="D71" t="s">
@@ -5034,10 +4946,10 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72">
         <v>44967.657951388901</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72">
         <v>44967.660416666702</v>
       </c>
       <c r="D72" t="s">
@@ -5087,10 +4999,10 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73">
         <v>44967.660393518498</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73">
         <v>44967.661446759303</v>
       </c>
       <c r="D73" t="s">
@@ -5140,10 +5052,10 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74">
         <v>44967.660520833299</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74">
         <v>44967.661712963003</v>
       </c>
       <c r="D74" t="s">
@@ -5193,10 +5105,10 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75">
         <v>44967.664236111101</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75">
         <v>44967.665925925903</v>
       </c>
       <c r="D75" t="s">
@@ -5246,10 +5158,10 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76">
         <v>44967.664212962998</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76">
         <v>44967.668252314797</v>
       </c>
       <c r="D76" t="s">
@@ -5299,10 +5211,10 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77">
         <v>44967.668263888903</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77">
         <v>44967.669884259303</v>
       </c>
       <c r="D77" t="s">
@@ -5352,10 +5264,10 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78">
         <v>44967.669074074103</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78">
         <v>44967.672395833302</v>
       </c>
       <c r="D78" t="s">
@@ -5405,10 +5317,10 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79">
         <v>44967.670995370398</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79">
         <v>44967.6731365741</v>
       </c>
       <c r="D79" t="s">
@@ -5458,10 +5370,10 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80">
         <v>44967.672025462998</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80">
         <v>44967.673935185201</v>
       </c>
       <c r="D80" t="s">
@@ -5511,10 +5423,10 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81">
         <v>44967.673078703701</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81">
         <v>44967.674907407403</v>
       </c>
       <c r="D81" t="s">
@@ -5564,10 +5476,10 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82">
         <v>44967.669837963003</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82">
         <v>44967.675601851901</v>
       </c>
       <c r="D82" t="s">
@@ -5617,10 +5529,10 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83">
         <v>44967.672928240703</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83">
         <v>44967.677951388898</v>
       </c>
       <c r="D83" t="s">
@@ -5670,10 +5582,10 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84">
         <v>44967.677118055602</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84">
         <v>44967.678263888898</v>
       </c>
       <c r="D84" t="s">
@@ -5723,10 +5635,10 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85">
         <v>44967.676446759302</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85">
         <v>44967.678310185198</v>
       </c>
       <c r="D85" t="s">
@@ -5776,10 +5688,10 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86">
         <v>44967.6773958333</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86">
         <v>44967.679456018501</v>
       </c>
       <c r="D86" t="s">
@@ -5829,10 +5741,10 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87">
         <v>44967.675520833298</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87">
         <v>44967.6800925926</v>
       </c>
       <c r="D87" t="s">
@@ -5882,10 +5794,10 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88">
         <v>44967.6816203704</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88">
         <v>44967.682777777802</v>
       </c>
       <c r="D88" t="s">
@@ -5935,10 +5847,10 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89">
         <v>44967.681863425903</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89">
         <v>44967.683032407404</v>
       </c>
       <c r="D89" t="s">
@@ -5988,10 +5900,10 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90">
         <v>44967.6783796296</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90">
         <v>44967.683148148099</v>
       </c>
       <c r="D90" t="s">
@@ -6041,10 +5953,10 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91">
         <v>44967.687303240702</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91">
         <v>44967.688483796301</v>
       </c>
       <c r="D91" t="s">
@@ -6094,10 +6006,10 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92">
         <v>44967.687650462998</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92">
         <v>44967.689050925903</v>
       </c>
       <c r="D92" t="s">
@@ -6147,10 +6059,10 @@
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93">
         <v>44967.685868055603</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93">
         <v>44967.689583333296</v>
       </c>
       <c r="D93" t="s">
@@ -6200,10 +6112,10 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94">
         <v>44967.692951388897</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94">
         <v>44967.693819444401</v>
       </c>
       <c r="D94" t="s">
@@ -6253,10 +6165,10 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95">
         <v>44967.686261574097</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95">
         <v>44967.704062500001</v>
       </c>
       <c r="D95" t="s">
@@ -6306,10 +6218,10 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96">
         <v>44967.703101851803</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96">
         <v>44967.705497685201</v>
       </c>
       <c r="D96" t="s">
@@ -6359,10 +6271,10 @@
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97">
         <v>44967.712384259299</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97">
         <v>44967.713831018496</v>
       </c>
       <c r="D97" t="s">
@@ -6412,10 +6324,10 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98">
         <v>44967.718726851803</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98">
         <v>44967.7262037037</v>
       </c>
       <c r="D98" t="s">
@@ -6465,10 +6377,10 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99">
         <v>44967.742222222201</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99">
         <v>44967.743750000001</v>
       </c>
       <c r="D99" t="s">
@@ -6518,10 +6430,10 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100">
         <v>44967.753252314797</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100">
         <v>44967.7550231481</v>
       </c>
       <c r="D100" t="s">
@@ -6571,10 +6483,10 @@
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101">
         <v>44967.754895833299</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101">
         <v>44967.756342592598</v>
       </c>
       <c r="D101" t="s">
@@ -6624,10 +6536,10 @@
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102">
         <v>44967.755682870396</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102">
         <v>44967.757175925901</v>
       </c>
       <c r="D102" t="s">
@@ -6677,10 +6589,10 @@
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103">
         <v>44967.760289351798</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103">
         <v>44967.762187499997</v>
       </c>
       <c r="D103" t="s">
@@ -6730,10 +6642,10 @@
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104">
         <v>44967.763078703698</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104">
         <v>44967.764791666697</v>
       </c>
       <c r="D104" t="s">
@@ -6783,10 +6695,10 @@
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105">
         <v>44967.7732986111</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105">
         <v>44967.774398148104</v>
       </c>
       <c r="D105" t="s">
@@ -6836,10 +6748,10 @@
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106">
         <v>44967.781979166699</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106">
         <v>44967.784687500003</v>
       </c>
       <c r="D106" t="s">
@@ -6889,10 +6801,10 @@
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107">
         <v>44967.783576388902</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107">
         <v>44967.784768518497</v>
       </c>
       <c r="D107" t="s">
@@ -6942,10 +6854,10 @@
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108">
         <v>44967.783055555599</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108">
         <v>44967.7869444444</v>
       </c>
       <c r="D108" t="s">
@@ -6995,10 +6907,10 @@
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109">
         <v>44967.786238425899</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109">
         <v>44967.787245370397</v>
       </c>
       <c r="D109" t="s">
@@ -7048,10 +6960,10 @@
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110">
         <v>44967.788032407399</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110">
         <v>44967.789768518502</v>
       </c>
       <c r="D110" t="s">
@@ -7101,10 +7013,10 @@
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111">
         <v>44967.788530092599</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111">
         <v>44967.789930555598</v>
       </c>
       <c r="D111" t="s">
@@ -7154,10 +7066,10 @@
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112">
         <v>44967.783263888901</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112">
         <v>44967.790069444403</v>
       </c>
       <c r="D112" t="s">
@@ -7207,10 +7119,10 @@
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113">
         <v>44967.789942129602</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113">
         <v>44967.791967592602</v>
       </c>
       <c r="D113" t="s">
@@ -7260,10 +7172,10 @@
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114">
         <v>44967.798252314802</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114">
         <v>44967.798923611103</v>
       </c>
       <c r="D114" t="s">
@@ -7313,10 +7225,10 @@
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115">
         <v>44967.800983796304</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115">
         <v>44967.802824074097</v>
       </c>
       <c r="D115" t="s">
@@ -7366,10 +7278,10 @@
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116">
         <v>44967.801180555602</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116">
         <v>44967.802974537</v>
       </c>
       <c r="D116" t="s">
@@ -7419,10 +7331,10 @@
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117">
         <v>44967.8034259259</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117">
         <v>44967.8061689815</v>
       </c>
       <c r="D117" t="s">
@@ -7472,10 +7384,10 @@
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118">
         <v>44967.808090277802</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118">
         <v>44967.811168981498</v>
       </c>
       <c r="D118" t="s">
@@ -7525,10 +7437,10 @@
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119">
         <v>44967.821354166699</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119">
         <v>44967.822546296302</v>
       </c>
       <c r="D119" t="s">
@@ -7578,10 +7490,10 @@
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120">
         <v>44967.831550925897</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120">
         <v>44967.832789351902</v>
       </c>
       <c r="D120" t="s">
@@ -7631,10 +7543,10 @@
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121">
         <v>44967.830590277801</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121">
         <v>44967.834247685198</v>
       </c>
       <c r="D121" t="s">
@@ -7684,10 +7596,10 @@
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122">
         <v>44967.834236111099</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122">
         <v>44967.836956018502</v>
       </c>
       <c r="D122" t="s">
@@ -7737,10 +7649,10 @@
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123">
         <v>44967.8424421296</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123">
         <v>44967.844282407401</v>
       </c>
       <c r="D123" t="s">
@@ -7790,10 +7702,10 @@
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124">
         <v>44967.850150462997</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124">
         <v>44967.851192129601</v>
       </c>
       <c r="D124" t="s">
@@ -7843,10 +7755,10 @@
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125">
         <v>44967.8524189815</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125">
         <v>44967.854456018496</v>
       </c>
       <c r="D125" t="s">
@@ -7896,10 +7808,10 @@
       <c r="A126">
         <v>125</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126">
         <v>44967.863101851901</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126">
         <v>44967.865636574097</v>
       </c>
       <c r="D126" t="s">
@@ -7949,10 +7861,10 @@
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127">
         <v>44967.8652546296</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C127">
         <v>44967.867303240702</v>
       </c>
       <c r="D127" t="s">
@@ -8002,10 +7914,10 @@
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128">
         <v>44967.871701388904</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128">
         <v>44967.874074074098</v>
       </c>
       <c r="D128" t="s">
@@ -8055,10 +7967,10 @@
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129">
         <v>44967.873749999999</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129">
         <v>44967.878217592603</v>
       </c>
       <c r="D129" t="s">
@@ -8108,10 +8020,10 @@
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130">
         <v>44967.882291666698</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130">
         <v>44967.885069444397</v>
       </c>
       <c r="D130" t="s">
@@ -8161,10 +8073,10 @@
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131">
         <v>44967.883344907401</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131">
         <v>44967.886192129597</v>
       </c>
       <c r="D131" t="s">
@@ -8213,8 +8125,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>